--- a/Understanding Data/Metadata - Harwinder.xlsx
+++ b/Understanding Data/Metadata - Harwinder.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABEACE02EC6B639863985BDE589E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1E46283B-2816-4FD4-A7AF-CECC63114F07}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_F25DC773A252ABEACE02EC6B639863985BDE589E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FCFF4D41-6C4B-4098-9F47-AA2C0EB4F13F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Comprehensive Species Tally</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Vikash, Edem, Harwinder</t>
+  </si>
+  <si>
+    <t>Data about location</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,7 +519,9 @@
       <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>

--- a/Understanding Data/Metadata - Harwinder.xlsx
+++ b/Understanding Data/Metadata - Harwinder.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_F25DC773A252ABEACE02EC6B639863985BDE589E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FCFF4D41-6C4B-4098-9F47-AA2C0EB4F13F}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABEACE02EC6B639863985BDE589E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E3E58426-F2A2-4054-BEFE-F3FF786DCEE9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$11</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -461,10 +464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,7 +497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -523,7 +527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -549,7 +553,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -573,7 +577,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -588,7 +592,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
@@ -614,7 +618,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
         <v>19</v>
@@ -628,6 +632,14 @@
       <c r="E11" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E11" xr:uid="{B272F3EB-3A18-484E-AD6C-C942021CCB02}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Harwinder"/>
+        <filter val="Vikash, Edem, Harwinder"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
